--- a/my_data_driver_1/TestData/data.xlsx
+++ b/my_data_driver_1/TestData/data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64848\my-warehouse\my-warehouse\my_data_driver_1\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEB9C6CA-3531-4B36-B3D8-677062E01B68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="登录账号" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="联系人" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="登录账号" sheetId="1" r:id="rId1"/>
+    <sheet name="联系人" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -38,9 +44,6 @@
     <t>anyg1314</t>
   </si>
   <si>
-    <t>guolin20000718</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -210,40 +213,43 @@
   </si>
   <si>
     <t>2018-07-13 11:44:59</t>
+  </si>
+  <si>
+    <t>**********</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -274,21 +280,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,26 +569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="9.5"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="15"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="19.75"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -593,470 +604,468 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="n">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="5.25"/>
-    <col customWidth="1" max="2" min="2" style="2" width="12"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="23.25"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="11"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="13"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="7.125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="9"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="19.75"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="30.75" r="1" s="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13888888888</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>13888888888</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>13888888889</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13888888890</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13888888891</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13888888892</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13888888893</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13888888894</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13888888895</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13888888896</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>13888888897</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>13888888898</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>13888888889</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="I12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>13888888899</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>13888888890</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="I13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13888888900</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>13888888891</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="I14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>13888888901</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>13888888892</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>13888888893</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>13888888894</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>13888888895</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>13888888896</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13888888897</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n"/>
-    </row>
-    <row r="12" s="2" spans="1:9">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>13888888898</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" s="2" spans="1:9">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>13888888899</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" s="2" spans="1:9">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>13888888900</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" s="2" spans="1:9">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>13888888901</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>